--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r112_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +501,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +548,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +761,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +808,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -997,10 +1021,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1044,28 +1068,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1090,28 +1114,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1257,10 +1281,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1304,28 +1328,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1350,28 +1374,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1546,10 +1570,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1593,28 +1617,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1639,28 +1663,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1806,10 +1830,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1853,28 +1877,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1899,28 +1923,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2124,10 +2148,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2171,28 +2195,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2217,28 +2241,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2384,10 +2408,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2431,28 +2455,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2477,28 +2501,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2644,10 +2668,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2691,28 +2715,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2737,28 +2761,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2933,10 +2957,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2980,28 +3004,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3026,28 +3050,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3193,10 +3217,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3240,28 +3264,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3286,28 +3310,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3424,10 +3448,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3471,28 +3495,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3517,28 +3541,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3742,10 +3766,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3789,28 +3813,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3835,28 +3859,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4031,10 +4055,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4078,28 +4102,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4124,28 +4148,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4378,10 +4402,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4425,28 +4449,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4471,28 +4495,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4667,10 +4691,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4714,28 +4738,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4760,28 +4784,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4985,10 +5009,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5032,28 +5056,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5078,28 +5102,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5274,10 +5298,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5321,28 +5345,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5367,28 +5391,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5592,10 +5616,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5639,28 +5663,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5685,28 +5709,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5910,10 +5934,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5957,28 +5981,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6003,28 +6027,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6083,10 +6107,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
